--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B5A24-C978-430D-82F3-FFBF57C1E4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D6860-1E88-433B-9DD2-599F1C11EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,48 @@
   </si>
   <si>
     <t>For 3d printing</t>
+  </si>
+  <si>
+    <t>NPN transistors</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bridgold-20pcs-TIP41C-Silicon-Transistor/dp/B07R49F39B/ref=sr_1_11?crid=1YSO8N9A97DZ&amp;dib=eyJ2IjoiMSJ9.PknK4apQ9Kn9jpUzoZrH1cnbi1p8FuauYPg54wu8h2fMtCJbSpnIjuCMuRiDTOrTUfbo4GBJg90qQ7fGdhvdcHTFGluFGh66Csuw8T3IkpOynSxZh5m9OCsig9g4f-0BiBQ7J7i5Yv1ChzK1oYwThzlLHYi1CMzGAoNyAjyf4oytYRNtqEy3pwVXIXqMcT6tegiLkZy1dwdqW9hpTRHXEPtCHK-phL2iKsvn_yquejU.rat5lRg5l4rsq2WtC-_TAi-BbG7D3VS2ERnwavdr1GU&amp;dib_tag=se&amp;keywords=npn+transistor&amp;qid=1715029341&amp;sprefix=NPN+%2Caps%2C322&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>OPA541AP</t>
+  </si>
+  <si>
+    <t>24.25</t>
+  </si>
+  <si>
+    <t>https://www.mouser.cl/ProductDetail/Texas-Instruments/OPA541AP?qs=wgAEGBTxy7mUzkga46VDEw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DGZZI-40x40x20mm-Silvertone-Conductive-Light-Emitting/dp/B092Q4ZHHV/ref=sims_dp_d_dex_ai_speed_loc_mtl_v4_d_sccl_2_1/144-0529648-1493104?pd_rd_w=QgQRx&amp;content-id=amzn1.sym.af515e1d-64ab-47a5-8a2e-6be4d0f4cdc5&amp;pf_rd_p=af515e1d-64ab-47a5-8a2e-6be4d0f4cdc5&amp;pf_rd_r=BTQJXAM33XJX8YKHNGY3&amp;pd_rd_wg=cPknV&amp;pd_rd_r=0b897f73-0fbe-4de6-a522-105f1a551159&amp;pd_rd_i=B092Q4ZHHV&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Meant to be used in OPA541AP</t>
+  </si>
+  <si>
+    <t>Heatsinks 40x40x20mm</t>
+  </si>
+  <si>
+    <t>9.59</t>
+  </si>
+  <si>
+    <t>Heatsink pack</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Easycargo-Heatsink-Transistor-Regulator-Pre-Applied/dp/B07KZG5433/ref=sr_1_11?crid=NLFNAD8Z2FCV&amp;dib=eyJ2IjoiMSJ9.y6o_gpbzQ4zRhkhtea169b6avxq00-CnzMUDAlaKJLvwfcDSaTSlKmUro7VawkzdjTWzdndc9zOjQkRMf-9UT2n1pjvL1Ch4xsKnc7DOShV1KeUFr6phtVtSsbktnYPmyRKQ3uR9YCYVtbI5iVPi_oUS77TNb7lw0-QgzIU5tRgZ2hhJVu77L7nzeUNyZj9D-LRsb254t20jkKCuYbLQjQiqGszhHuu1YW64ieahUnA.Q6GTIiwpyn1_37dyFr3w0maQhUcV4StGze0LQG8ixww&amp;dib_tag=se&amp;keywords=tip41+heatsink&amp;qid=1715029762&amp;sprefix=tip41+heatsink%2Caps%2C257&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>For the NPN transistors used for shimming</t>
   </si>
 </sst>
 </file>
@@ -327,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,6 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,174 +767,176 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -900,51 +945,113 @@
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
